--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pratap\Eclipse\Eclipse Workspace\WebsiteAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA39E6A-B0CA-4312-BDB7-D142481EB5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ADEA06-4F54-4C07-B8E1-19EAEE8C08FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Sender Name</t>
   </si>
@@ -82,13 +82,40 @@
   </si>
   <si>
     <t>08-Dec-2022</t>
+  </si>
+  <si>
+    <t>Amit Sharer</t>
+  </si>
+  <si>
+    <t>ttt@parikhgroup.com</t>
+  </si>
+  <si>
+    <t>Mr. Manav Purohit</t>
+  </si>
+  <si>
+    <t>manav@parikhgroup.com</t>
+  </si>
+  <si>
+    <t>IT Audit</t>
+  </si>
+  <si>
+    <t>This is IT Audit report</t>
+  </si>
+  <si>
+    <t>16-Nov-2022</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>09:31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +136,12 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,16 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -428,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,12 +467,13 @@
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="6" max="6" width="33.109375" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" customWidth="1"/>
     <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -502,1202 +533,1261 @@
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4">
-        <v>0.97916666666666663</v>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I3" s="5"/>
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I32" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I33" s="5"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="5"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I35" s="5"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="5"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="5"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="5"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I39" s="5"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I40" s="5"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I41" s="5"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="5"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I43" s="5"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I44" s="5"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I45" s="5"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I46" s="5"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I47" s="5"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I48" s="5"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I49" s="5"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I50" s="5"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I51" s="5"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I52" s="5"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I53" s="5"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I54" s="5"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I55" s="5"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I56" s="5"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I57" s="5"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I58" s="5"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I59" s="5"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I60" s="5"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I61" s="5"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I62" s="5"/>
+      <c r="I62" s="4"/>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I63" s="5"/>
+      <c r="I63" s="4"/>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I64" s="5"/>
+      <c r="I64" s="4"/>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="5"/>
+      <c r="I65" s="4"/>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="5"/>
+      <c r="I66" s="4"/>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="5"/>
+      <c r="I67" s="4"/>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="5"/>
+      <c r="I68" s="4"/>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="5"/>
+      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="5"/>
+      <c r="I70" s="4"/>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I71" s="5"/>
+      <c r="I71" s="4"/>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I72" s="5"/>
+      <c r="I72" s="4"/>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I73" s="5"/>
+      <c r="I73" s="4"/>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="5"/>
+      <c r="I74" s="4"/>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I75" s="5"/>
+      <c r="I75" s="4"/>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="5"/>
+      <c r="I76" s="4"/>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="5"/>
+      <c r="I77" s="4"/>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I78" s="5"/>
+      <c r="I78" s="4"/>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I79" s="5"/>
+      <c r="I79" s="4"/>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I80" s="5"/>
+      <c r="I80" s="4"/>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I81" s="5"/>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I82" s="5"/>
+      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I83" s="5"/>
+      <c r="I83" s="4"/>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I84" s="5"/>
+      <c r="I84" s="4"/>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I85" s="5"/>
+      <c r="I85" s="4"/>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I86" s="5"/>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I87" s="5"/>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I88" s="5"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I89" s="5"/>
+      <c r="I89" s="4"/>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I90" s="5"/>
+      <c r="I90" s="4"/>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I91" s="5"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I92" s="5"/>
+      <c r="I92" s="4"/>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I93" s="5"/>
+      <c r="I93" s="4"/>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I94" s="5"/>
+      <c r="I94" s="4"/>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I95" s="5"/>
+      <c r="I95" s="4"/>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I96" s="5"/>
+      <c r="I96" s="4"/>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I97" s="5"/>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I98" s="5"/>
+      <c r="I98" s="4"/>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I99" s="5"/>
+      <c r="I99" s="4"/>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I100" s="5"/>
+      <c r="I100" s="4"/>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I101" s="5"/>
+      <c r="I101" s="4"/>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I102" s="5"/>
+      <c r="I102" s="4"/>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I103" s="5"/>
+      <c r="I103" s="4"/>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I104" s="5"/>
+      <c r="I104" s="4"/>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I105" s="5"/>
+      <c r="I105" s="4"/>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I106" s="5"/>
+      <c r="I106" s="4"/>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I107" s="5"/>
+      <c r="I107" s="4"/>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I108" s="5"/>
+      <c r="I108" s="4"/>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I109" s="5"/>
+      <c r="I109" s="4"/>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I110" s="5"/>
+      <c r="I110" s="4"/>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I111" s="5"/>
+      <c r="I111" s="4"/>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I112" s="5"/>
+      <c r="I112" s="4"/>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I113" s="5"/>
+      <c r="I113" s="4"/>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I114" s="5"/>
+      <c r="I114" s="4"/>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I115" s="5"/>
+      <c r="I115" s="4"/>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I116" s="5"/>
+      <c r="I116" s="4"/>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I117" s="5"/>
+      <c r="I117" s="4"/>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I118" s="5"/>
+      <c r="I118" s="4"/>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I119" s="5"/>
+      <c r="I119" s="4"/>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I120" s="5"/>
+      <c r="I120" s="4"/>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I121" s="5"/>
+      <c r="I121" s="4"/>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I122" s="5"/>
+      <c r="I122" s="4"/>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I123" s="5"/>
+      <c r="I123" s="4"/>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I124" s="5"/>
+      <c r="I124" s="4"/>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I125" s="5"/>
+      <c r="I125" s="4"/>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I126" s="5"/>
+      <c r="I126" s="4"/>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I127" s="5"/>
+      <c r="I127" s="4"/>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I128" s="5"/>
+      <c r="I128" s="4"/>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I129" s="5"/>
+      <c r="I129" s="4"/>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I130" s="5"/>
+      <c r="I130" s="4"/>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I131" s="5"/>
+      <c r="I131" s="4"/>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I132" s="5"/>
+      <c r="I132" s="4"/>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I133" s="5"/>
+      <c r="I133" s="4"/>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I134" s="5"/>
+      <c r="I134" s="4"/>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I135" s="5"/>
+      <c r="I135" s="4"/>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I136" s="5"/>
+      <c r="I136" s="4"/>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I137" s="5"/>
+      <c r="I137" s="4"/>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I138" s="5"/>
+      <c r="I138" s="4"/>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I139" s="5"/>
+      <c r="I139" s="4"/>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I140" s="5"/>
+      <c r="I140" s="4"/>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I141" s="5"/>
+      <c r="I141" s="4"/>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I142" s="5"/>
+      <c r="I142" s="4"/>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I143" s="5"/>
+      <c r="I143" s="4"/>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I144" s="5"/>
+      <c r="I144" s="4"/>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I145" s="5"/>
+      <c r="I145" s="4"/>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I146" s="5"/>
+      <c r="I146" s="4"/>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I147" s="5"/>
+      <c r="I147" s="4"/>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I148" s="5"/>
+      <c r="I148" s="4"/>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I149" s="5"/>
+      <c r="I149" s="4"/>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I150" s="5"/>
+      <c r="I150" s="4"/>
     </row>
     <row r="151" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I151" s="5"/>
+      <c r="I151" s="4"/>
     </row>
     <row r="152" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I152" s="5"/>
+      <c r="I152" s="4"/>
     </row>
     <row r="153" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I153" s="5"/>
+      <c r="I153" s="4"/>
     </row>
     <row r="154" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I154" s="5"/>
+      <c r="I154" s="4"/>
     </row>
     <row r="155" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I155" s="5"/>
+      <c r="I155" s="4"/>
     </row>
     <row r="156" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I156" s="5"/>
+      <c r="I156" s="4"/>
     </row>
     <row r="157" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I157" s="5"/>
+      <c r="I157" s="4"/>
     </row>
     <row r="158" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I158" s="5"/>
+      <c r="I158" s="4"/>
     </row>
     <row r="159" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I159" s="5"/>
+      <c r="I159" s="4"/>
     </row>
     <row r="160" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I160" s="5"/>
+      <c r="I160" s="4"/>
     </row>
     <row r="161" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I161" s="5"/>
+      <c r="I161" s="4"/>
     </row>
     <row r="162" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I162" s="5"/>
+      <c r="I162" s="4"/>
     </row>
     <row r="163" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I163" s="5"/>
+      <c r="I163" s="4"/>
     </row>
     <row r="164" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I164" s="5"/>
+      <c r="I164" s="4"/>
     </row>
     <row r="165" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I165" s="5"/>
+      <c r="I165" s="4"/>
     </row>
     <row r="166" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I166" s="5"/>
+      <c r="I166" s="4"/>
     </row>
     <row r="167" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I167" s="5"/>
+      <c r="I167" s="4"/>
     </row>
     <row r="168" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I168" s="5"/>
+      <c r="I168" s="4"/>
     </row>
     <row r="169" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I169" s="5"/>
+      <c r="I169" s="4"/>
     </row>
     <row r="170" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I170" s="5"/>
+      <c r="I170" s="4"/>
     </row>
     <row r="171" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I171" s="5"/>
+      <c r="I171" s="4"/>
     </row>
     <row r="172" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I172" s="5"/>
+      <c r="I172" s="4"/>
     </row>
     <row r="173" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I173" s="5"/>
+      <c r="I173" s="4"/>
     </row>
     <row r="174" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I174" s="5"/>
+      <c r="I174" s="4"/>
     </row>
     <row r="175" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I175" s="5"/>
+      <c r="I175" s="4"/>
     </row>
     <row r="176" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I176" s="5"/>
+      <c r="I176" s="4"/>
     </row>
     <row r="177" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I177" s="5"/>
+      <c r="I177" s="4"/>
     </row>
     <row r="178" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I178" s="5"/>
+      <c r="I178" s="4"/>
     </row>
     <row r="179" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I179" s="5"/>
+      <c r="I179" s="4"/>
     </row>
     <row r="180" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I180" s="5"/>
+      <c r="I180" s="4"/>
     </row>
     <row r="181" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I181" s="5"/>
+      <c r="I181" s="4"/>
     </row>
     <row r="182" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I182" s="5"/>
+      <c r="I182" s="4"/>
     </row>
     <row r="183" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I183" s="5"/>
+      <c r="I183" s="4"/>
     </row>
     <row r="184" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I184" s="5"/>
+      <c r="I184" s="4"/>
     </row>
     <row r="185" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I185" s="5"/>
+      <c r="I185" s="4"/>
     </row>
     <row r="186" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I186" s="5"/>
+      <c r="I186" s="4"/>
     </row>
     <row r="187" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I187" s="5"/>
+      <c r="I187" s="4"/>
     </row>
     <row r="188" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I188" s="5"/>
+      <c r="I188" s="4"/>
     </row>
     <row r="189" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I189" s="5"/>
+      <c r="I189" s="4"/>
     </row>
     <row r="190" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I190" s="5"/>
+      <c r="I190" s="4"/>
     </row>
     <row r="191" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I191" s="5"/>
+      <c r="I191" s="4"/>
     </row>
     <row r="192" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I192" s="5"/>
+      <c r="I192" s="4"/>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I193" s="5"/>
+      <c r="I193" s="4"/>
     </row>
     <row r="194" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I194" s="5"/>
+      <c r="I194" s="4"/>
     </row>
     <row r="195" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I195" s="5"/>
+      <c r="I195" s="4"/>
     </row>
     <row r="196" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I196" s="5"/>
+      <c r="I196" s="4"/>
     </row>
     <row r="197" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I197" s="5"/>
+      <c r="I197" s="4"/>
     </row>
     <row r="198" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I198" s="5"/>
+      <c r="I198" s="4"/>
     </row>
     <row r="199" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I199" s="5"/>
+      <c r="I199" s="4"/>
     </row>
     <row r="200" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I200" s="5"/>
+      <c r="I200" s="4"/>
     </row>
     <row r="201" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I201" s="5"/>
+      <c r="I201" s="4"/>
     </row>
     <row r="202" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I202" s="5"/>
+      <c r="I202" s="4"/>
     </row>
     <row r="203" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I203" s="5"/>
+      <c r="I203" s="4"/>
     </row>
     <row r="204" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I204" s="5"/>
+      <c r="I204" s="4"/>
     </row>
     <row r="205" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I205" s="5"/>
+      <c r="I205" s="4"/>
     </row>
     <row r="206" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I206" s="5"/>
+      <c r="I206" s="4"/>
     </row>
     <row r="207" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I207" s="5"/>
+      <c r="I207" s="4"/>
     </row>
     <row r="208" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I208" s="5"/>
+      <c r="I208" s="4"/>
     </row>
     <row r="209" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I209" s="5"/>
+      <c r="I209" s="4"/>
     </row>
     <row r="210" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I210" s="5"/>
+      <c r="I210" s="4"/>
     </row>
     <row r="211" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I211" s="5"/>
+      <c r="I211" s="4"/>
     </row>
     <row r="212" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I212" s="5"/>
+      <c r="I212" s="4"/>
     </row>
     <row r="213" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I213" s="5"/>
+      <c r="I213" s="4"/>
     </row>
     <row r="214" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I214" s="5"/>
+      <c r="I214" s="4"/>
     </row>
     <row r="215" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I215" s="5"/>
+      <c r="I215" s="4"/>
     </row>
     <row r="216" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I216" s="5"/>
+      <c r="I216" s="4"/>
     </row>
     <row r="217" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I217" s="5"/>
+      <c r="I217" s="4"/>
     </row>
     <row r="218" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I218" s="5"/>
+      <c r="I218" s="4"/>
     </row>
     <row r="219" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I219" s="5"/>
+      <c r="I219" s="4"/>
     </row>
     <row r="220" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I220" s="5"/>
+      <c r="I220" s="4"/>
     </row>
     <row r="221" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I221" s="5"/>
+      <c r="I221" s="4"/>
     </row>
     <row r="222" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I222" s="5"/>
+      <c r="I222" s="4"/>
     </row>
     <row r="223" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I223" s="5"/>
+      <c r="I223" s="4"/>
     </row>
     <row r="224" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I224" s="5"/>
+      <c r="I224" s="4"/>
     </row>
     <row r="225" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I225" s="5"/>
+      <c r="I225" s="4"/>
     </row>
     <row r="226" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I226" s="5"/>
+      <c r="I226" s="4"/>
     </row>
     <row r="227" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I227" s="5"/>
+      <c r="I227" s="4"/>
     </row>
     <row r="228" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I228" s="5"/>
+      <c r="I228" s="4"/>
     </row>
     <row r="229" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I229" s="5"/>
+      <c r="I229" s="4"/>
     </row>
     <row r="230" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I230" s="5"/>
+      <c r="I230" s="4"/>
     </row>
     <row r="231" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I231" s="5"/>
+      <c r="I231" s="4"/>
     </row>
     <row r="232" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I232" s="5"/>
+      <c r="I232" s="4"/>
     </row>
     <row r="233" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I233" s="5"/>
+      <c r="I233" s="4"/>
     </row>
     <row r="234" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I234" s="5"/>
+      <c r="I234" s="4"/>
     </row>
     <row r="235" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I235" s="5"/>
+      <c r="I235" s="4"/>
     </row>
     <row r="236" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I236" s="5"/>
+      <c r="I236" s="4"/>
     </row>
     <row r="237" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I237" s="5"/>
+      <c r="I237" s="4"/>
     </row>
     <row r="238" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I238" s="5"/>
+      <c r="I238" s="4"/>
     </row>
     <row r="239" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I239" s="5"/>
+      <c r="I239" s="4"/>
     </row>
     <row r="240" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I240" s="5"/>
+      <c r="I240" s="4"/>
     </row>
     <row r="241" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I241" s="5"/>
+      <c r="I241" s="4"/>
     </row>
     <row r="242" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I242" s="5"/>
+      <c r="I242" s="4"/>
     </row>
     <row r="243" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I243" s="5"/>
+      <c r="I243" s="4"/>
     </row>
     <row r="244" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I244" s="5"/>
+      <c r="I244" s="4"/>
     </row>
     <row r="245" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I245" s="5"/>
+      <c r="I245" s="4"/>
     </row>
     <row r="246" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I246" s="5"/>
+      <c r="I246" s="4"/>
     </row>
     <row r="247" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I247" s="5"/>
+      <c r="I247" s="4"/>
     </row>
     <row r="248" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I248" s="5"/>
+      <c r="I248" s="4"/>
     </row>
     <row r="249" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I249" s="5"/>
+      <c r="I249" s="4"/>
     </row>
     <row r="250" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I250" s="5"/>
+      <c r="I250" s="4"/>
     </row>
     <row r="251" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I251" s="5"/>
+      <c r="I251" s="4"/>
     </row>
     <row r="252" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I252" s="5"/>
+      <c r="I252" s="4"/>
     </row>
     <row r="253" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I253" s="5"/>
+      <c r="I253" s="4"/>
     </row>
     <row r="254" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I254" s="5"/>
+      <c r="I254" s="4"/>
     </row>
     <row r="255" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I255" s="5"/>
+      <c r="I255" s="4"/>
     </row>
     <row r="256" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I256" s="5"/>
+      <c r="I256" s="4"/>
     </row>
     <row r="257" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I257" s="5"/>
+      <c r="I257" s="4"/>
     </row>
     <row r="258" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I258" s="5"/>
+      <c r="I258" s="4"/>
     </row>
     <row r="259" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I259" s="5"/>
+      <c r="I259" s="4"/>
     </row>
     <row r="260" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I260" s="5"/>
+      <c r="I260" s="4"/>
     </row>
     <row r="261" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I261" s="5"/>
+      <c r="I261" s="4"/>
     </row>
     <row r="262" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I262" s="5"/>
+      <c r="I262" s="4"/>
     </row>
     <row r="263" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I263" s="5"/>
+      <c r="I263" s="4"/>
     </row>
     <row r="264" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I264" s="5"/>
+      <c r="I264" s="4"/>
     </row>
     <row r="265" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I265" s="5"/>
+      <c r="I265" s="4"/>
     </row>
     <row r="266" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I266" s="5"/>
+      <c r="I266" s="4"/>
     </row>
     <row r="267" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I267" s="5"/>
+      <c r="I267" s="4"/>
     </row>
     <row r="268" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I268" s="5"/>
+      <c r="I268" s="4"/>
     </row>
     <row r="269" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I269" s="5"/>
+      <c r="I269" s="4"/>
     </row>
     <row r="270" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I270" s="5"/>
+      <c r="I270" s="4"/>
     </row>
     <row r="271" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I271" s="5"/>
+      <c r="I271" s="4"/>
     </row>
     <row r="272" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I272" s="5"/>
+      <c r="I272" s="4"/>
     </row>
     <row r="273" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I273" s="5"/>
+      <c r="I273" s="4"/>
     </row>
     <row r="274" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I274" s="5"/>
+      <c r="I274" s="4"/>
     </row>
     <row r="275" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I275" s="5"/>
+      <c r="I275" s="4"/>
     </row>
     <row r="276" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I276" s="5"/>
+      <c r="I276" s="4"/>
     </row>
     <row r="277" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I277" s="5"/>
+      <c r="I277" s="4"/>
     </row>
     <row r="278" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I278" s="5"/>
+      <c r="I278" s="4"/>
     </row>
     <row r="279" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I279" s="5"/>
+      <c r="I279" s="4"/>
     </row>
     <row r="280" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I280" s="5"/>
+      <c r="I280" s="4"/>
     </row>
     <row r="281" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I281" s="5"/>
+      <c r="I281" s="4"/>
     </row>
     <row r="282" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I282" s="5"/>
+      <c r="I282" s="4"/>
     </row>
     <row r="283" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I283" s="5"/>
+      <c r="I283" s="4"/>
     </row>
     <row r="284" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I284" s="5"/>
+      <c r="I284" s="4"/>
     </row>
     <row r="285" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I285" s="5"/>
+      <c r="I285" s="4"/>
     </row>
     <row r="286" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I286" s="5"/>
+      <c r="I286" s="4"/>
     </row>
     <row r="287" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I287" s="5"/>
+      <c r="I287" s="4"/>
     </row>
     <row r="288" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I288" s="5"/>
+      <c r="I288" s="4"/>
     </row>
     <row r="289" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I289" s="5"/>
+      <c r="I289" s="4"/>
     </row>
     <row r="290" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I290" s="5"/>
+      <c r="I290" s="4"/>
     </row>
     <row r="291" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I291" s="5"/>
+      <c r="I291" s="4"/>
     </row>
     <row r="292" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I292" s="5"/>
+      <c r="I292" s="4"/>
     </row>
     <row r="293" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I293" s="5"/>
+      <c r="I293" s="4"/>
     </row>
     <row r="294" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I294" s="5"/>
+      <c r="I294" s="4"/>
     </row>
     <row r="295" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I295" s="5"/>
+      <c r="I295" s="4"/>
     </row>
     <row r="296" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I296" s="5"/>
+      <c r="I296" s="4"/>
     </row>
     <row r="297" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I297" s="5"/>
+      <c r="I297" s="4"/>
     </row>
     <row r="298" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I298" s="5"/>
+      <c r="I298" s="4"/>
     </row>
     <row r="299" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I299" s="5"/>
+      <c r="I299" s="4"/>
     </row>
     <row r="300" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I300" s="5"/>
+      <c r="I300" s="4"/>
     </row>
     <row r="301" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I301" s="5"/>
+      <c r="I301" s="4"/>
     </row>
     <row r="302" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I302" s="5"/>
+      <c r="I302" s="4"/>
     </row>
     <row r="303" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I303" s="5"/>
+      <c r="I303" s="4"/>
     </row>
     <row r="304" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I304" s="5"/>
+      <c r="I304" s="4"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I305" s="5"/>
+      <c r="I305" s="4"/>
     </row>
     <row r="306" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I306" s="5"/>
+      <c r="I306" s="4"/>
     </row>
     <row r="307" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I307" s="5"/>
+      <c r="I307" s="4"/>
     </row>
     <row r="308" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I308" s="5"/>
+      <c r="I308" s="4"/>
     </row>
     <row r="309" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I309" s="5"/>
+      <c r="I309" s="4"/>
     </row>
     <row r="310" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I310" s="5"/>
+      <c r="I310" s="4"/>
     </row>
     <row r="311" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I311" s="5"/>
+      <c r="I311" s="4"/>
     </row>
     <row r="312" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I312" s="5"/>
+      <c r="I312" s="4"/>
     </row>
     <row r="313" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I313" s="5"/>
+      <c r="I313" s="4"/>
     </row>
     <row r="314" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I314" s="5"/>
+      <c r="I314" s="4"/>
     </row>
     <row r="315" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I315" s="5"/>
+      <c r="I315" s="4"/>
     </row>
     <row r="316" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I316" s="5"/>
+      <c r="I316" s="4"/>
     </row>
     <row r="317" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I317" s="5"/>
+      <c r="I317" s="4"/>
     </row>
     <row r="318" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I318" s="5"/>
+      <c r="I318" s="4"/>
     </row>
     <row r="319" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I319" s="5"/>
+      <c r="I319" s="4"/>
     </row>
     <row r="320" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I320" s="5"/>
+      <c r="I320" s="4"/>
     </row>
     <row r="321" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I321" s="5"/>
+      <c r="I321" s="4"/>
     </row>
     <row r="322" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I322" s="5"/>
+      <c r="I322" s="4"/>
     </row>
     <row r="323" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I323" s="5"/>
+      <c r="I323" s="4"/>
     </row>
     <row r="324" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I324" s="5"/>
+      <c r="I324" s="4"/>
     </row>
     <row r="325" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I325" s="5"/>
+      <c r="I325" s="4"/>
     </row>
     <row r="326" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I326" s="5"/>
+      <c r="I326" s="4"/>
     </row>
     <row r="327" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I327" s="5"/>
+      <c r="I327" s="4"/>
     </row>
     <row r="328" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I328" s="5"/>
+      <c r="I328" s="4"/>
     </row>
     <row r="329" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I329" s="5"/>
+      <c r="I329" s="4"/>
     </row>
     <row r="330" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I330" s="5"/>
+      <c r="I330" s="4"/>
     </row>
     <row r="331" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I331" s="5"/>
+      <c r="I331" s="4"/>
     </row>
     <row r="332" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I332" s="5"/>
+      <c r="I332" s="4"/>
     </row>
     <row r="333" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I333" s="5"/>
+      <c r="I333" s="4"/>
     </row>
     <row r="334" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I334" s="5"/>
+      <c r="I334" s="4"/>
     </row>
     <row r="335" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I335" s="5"/>
+      <c r="I335" s="4"/>
     </row>
     <row r="336" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I336" s="5"/>
+      <c r="I336" s="4"/>
     </row>
     <row r="337" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I337" s="5"/>
+      <c r="I337" s="4"/>
     </row>
     <row r="338" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I338" s="5"/>
+      <c r="I338" s="4"/>
     </row>
     <row r="339" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I339" s="5"/>
+      <c r="I339" s="4"/>
     </row>
     <row r="340" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I340" s="5"/>
+      <c r="I340" s="4"/>
     </row>
     <row r="341" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I341" s="5"/>
+      <c r="I341" s="4"/>
     </row>
     <row r="342" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I342" s="5"/>
+      <c r="I342" s="4"/>
     </row>
     <row r="343" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I343" s="5"/>
+      <c r="I343" s="4"/>
     </row>
     <row r="344" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I344" s="5"/>
+      <c r="I344" s="4"/>
     </row>
     <row r="345" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I345" s="5"/>
+      <c r="I345" s="4"/>
     </row>
     <row r="346" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I346" s="5"/>
+      <c r="I346" s="4"/>
     </row>
     <row r="347" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I347" s="5"/>
+      <c r="I347" s="4"/>
     </row>
     <row r="348" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I348" s="5"/>
+      <c r="I348" s="4"/>
     </row>
     <row r="349" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I349" s="5"/>
+      <c r="I349" s="4"/>
     </row>
     <row r="350" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I350" s="5"/>
+      <c r="I350" s="4"/>
     </row>
     <row r="351" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I351" s="5"/>
+      <c r="I351" s="4"/>
     </row>
     <row r="352" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I352" s="5"/>
+      <c r="I352" s="4"/>
     </row>
     <row r="353" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I353" s="5"/>
+      <c r="I353" s="4"/>
     </row>
     <row r="354" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I354" s="5"/>
+      <c r="I354" s="4"/>
     </row>
     <row r="355" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I355" s="5"/>
+      <c r="I355" s="4"/>
     </row>
     <row r="356" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I356" s="5"/>
+      <c r="I356" s="4"/>
     </row>
     <row r="357" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I357" s="5"/>
+      <c r="I357" s="4"/>
     </row>
     <row r="358" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I358" s="5"/>
+      <c r="I358" s="4"/>
     </row>
     <row r="359" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I359" s="5"/>
+      <c r="I359" s="4"/>
     </row>
     <row r="360" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I360" s="5"/>
+      <c r="I360" s="4"/>
     </row>
     <row r="361" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I361" s="5"/>
+      <c r="I361" s="4"/>
     </row>
     <row r="362" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I362" s="5"/>
+      <c r="I362" s="4"/>
     </row>
     <row r="363" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I363" s="5"/>
+      <c r="I363" s="4"/>
     </row>
     <row r="364" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I364" s="5"/>
+      <c r="I364" s="4"/>
     </row>
     <row r="365" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I365" s="5"/>
+      <c r="I365" s="4"/>
     </row>
     <row r="366" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I366" s="5"/>
+      <c r="I366" s="4"/>
     </row>
     <row r="367" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I367" s="5"/>
+      <c r="I367" s="4"/>
     </row>
     <row r="368" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I368" s="5"/>
+      <c r="I368" s="4"/>
     </row>
     <row r="369" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I369" s="5"/>
+      <c r="I369" s="4"/>
     </row>
     <row r="370" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I370" s="5"/>
+      <c r="I370" s="4"/>
     </row>
     <row r="371" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I371" s="5"/>
+      <c r="I371" s="4"/>
     </row>
     <row r="372" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I372" s="5"/>
+      <c r="I372" s="4"/>
     </row>
     <row r="373" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I373" s="5"/>
+      <c r="I373" s="4"/>
     </row>
     <row r="374" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I374" s="5"/>
+      <c r="I374" s="4"/>
     </row>
     <row r="375" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I375" s="5"/>
+      <c r="I375" s="4"/>
     </row>
     <row r="376" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I376" s="5"/>
+      <c r="I376" s="4"/>
     </row>
     <row r="377" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I377" s="5"/>
+      <c r="I377" s="4"/>
     </row>
     <row r="378" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I378" s="5"/>
+      <c r="I378" s="4"/>
     </row>
     <row r="379" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I379" s="5"/>
+      <c r="I379" s="4"/>
     </row>
     <row r="380" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I380" s="5"/>
+      <c r="I380" s="4"/>
     </row>
     <row r="381" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I381" s="5"/>
+      <c r="I381" s="4"/>
     </row>
     <row r="382" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I382" s="5"/>
+      <c r="I382" s="4"/>
     </row>
     <row r="383" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I383" s="5"/>
+      <c r="I383" s="4"/>
     </row>
     <row r="384" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I384" s="5"/>
+      <c r="I384" s="4"/>
     </row>
     <row r="385" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I385" s="5"/>
+      <c r="I385" s="4"/>
     </row>
     <row r="386" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I386" s="5"/>
+      <c r="I386" s="4"/>
     </row>
     <row r="387" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I387" s="5"/>
+      <c r="I387" s="4"/>
     </row>
     <row r="388" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I388" s="5"/>
+      <c r="I388" s="4"/>
     </row>
     <row r="389" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I389" s="5"/>
+      <c r="I389" s="4"/>
     </row>
     <row r="390" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I390" s="5"/>
+      <c r="I390" s="4"/>
     </row>
     <row r="391" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I391" s="5"/>
+      <c r="I391" s="4"/>
     </row>
     <row r="392" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I392" s="5"/>
+      <c r="I392" s="4"/>
     </row>
     <row r="393" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I393" s="5"/>
+      <c r="I393" s="4"/>
     </row>
     <row r="394" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I394" s="5"/>
+      <c r="I394" s="4"/>
     </row>
     <row r="395" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I395" s="5"/>
+      <c r="I395" s="4"/>
     </row>
     <row r="396" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I396" s="5"/>
+      <c r="I396" s="4"/>
     </row>
     <row r="397" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I397" s="5"/>
+      <c r="I397" s="4"/>
     </row>
     <row r="398" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I398" s="5"/>
+      <c r="I398" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
